--- a/examples/analysis/tco.xlsx
+++ b/examples/analysis/tco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesp/Projects/aws-tf-egress-vpc-tgw-nwf/examples/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B03C3A-4C6F-6344-8947-90749ADEA64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D1818-3CF2-CF46-923C-5CCAAD42C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{AFE571CD-0C69-1445-BD6E-AD6FF2DDB386}"/>
+    <workbookView xWindow="2540" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{AFE571CD-0C69-1445-BD6E-AD6FF2DDB386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,21 +147,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,10 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8796B687-3222-454A-A303-185D3995A2D0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,368 +515,501 @@
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <f>SUM(720*(B3*F3))</f>
         <v>568.80000000000007</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="6">
         <f>SUM(720*(B3*I3))</f>
         <v>853.2</v>
       </c>
-      <c r="L3">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
         <v>4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="6">
         <f>SUM(720*(B3*L3))</f>
         <v>1137.6000000000001</v>
       </c>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>300</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <f>SUM(B4*F4)</f>
         <v>19.5</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>300</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f>SUM(B4*I4)</f>
         <v>19.5</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <v>300</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="6">
         <f>SUM(B4*L4)</f>
         <v>19.5</v>
       </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <f>SUM(B5*F5)</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f>SUM(B5*I5)</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>4</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="6">
         <f>SUM(B5*L5)</f>
         <v>0</v>
       </c>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="F6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <f>SUM(G3:G4)</f>
         <v>588.30000000000007</v>
       </c>
-      <c r="J6" s="2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6">
         <f>SUM(J3:J4)</f>
         <v>872.7</v>
       </c>
-      <c r="M6" s="2">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="6">
         <f>SUM(M3:M4)</f>
         <v>1157.1000000000001</v>
       </c>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>0.17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <f>SUM(720*(B10*F10))</f>
         <v>244.8</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <f>SUM(720*(B10*I10))</f>
         <v>367.2</v>
       </c>
-      <c r="L10">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>4</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="6">
         <f>SUM(720*(B10*L10))</f>
         <v>489.6</v>
       </c>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>0.192</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <f>SUM(720*(B11*F11))</f>
         <v>138.24</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <f>SUM(720*(B11*I11))</f>
         <v>138.24</v>
       </c>
-      <c r="L11">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="6">
         <f>SUM(720*(B11*L11))</f>
         <v>138.24</v>
       </c>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="F12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <f>SUM(G9:G10)</f>
         <v>244.8</v>
       </c>
-      <c r="J12" s="2">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6">
         <f>SUM(J9:J10)</f>
         <v>367.2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="6">
         <f>SUM(M9:M10)</f>
         <v>489.6</v>
       </c>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>1.08</v>
       </c>
-      <c r="F16">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <f>SUM(720*(B16*F16))</f>
         <v>1555.2</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
         <v>3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="6">
         <f>SUM(720*(B16*I16))</f>
         <v>2332.8000000000002</v>
       </c>
-      <c r="L16">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>4</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="6">
         <f>SUM(720*(B16*L16))</f>
         <v>3110.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.71199999999999997</v>
       </c>
-      <c r="F17">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <f>SUM(720*(B17*F17))</f>
         <v>512.64</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="6">
         <f>SUM(720*(B17*I17))</f>
         <v>512.64</v>
       </c>
-      <c r="L17">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="6">
         <f>SUM(720*(B17*L17))</f>
         <v>512.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <f>SUM(G16:G17)</f>
         <v>2067.84</v>
       </c>
-      <c r="J18" s="2">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6">
         <f>SUM(J16:J17)</f>
         <v>2845.44</v>
       </c>
-      <c r="M18" s="2">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="6">
         <f>SUM(M16:M17)</f>
         <v>3623.04</v>
       </c>
+      <c r="N18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -874,5 +1027,6 @@
     <mergeCell ref="L9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>